--- a/日课.xlsx
+++ b/日课.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Library/Containers/com.microsoft.Excel/Data/Desktop/GrowUp2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D8963-C1E7-6945-98C1-97B4AA2DB359}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BE2DEB-BDDB-CB45-BDBF-9AA0BF91EB7C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -2959,9 +2959,9 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A72" activePane="bottomLeft"/>
+      <pane ySplit="2440" topLeftCell="A76" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>

--- a/日课.xlsx
+++ b/日课.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BE2DEB-BDDB-CB45-BDBF-9AA0BF91EB7C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512177BC-F8C5-9040-9A09-FA2BE90D56B2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" activeTab="2" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
     <sheet name="每日反思内容" sheetId="4" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -2958,7 +2959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <pane ySplit="2440" topLeftCell="A76" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
@@ -4734,4 +4735,476 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1332A57F-19B0-9A41-9309-2395832BED90}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <f>1*1.006</f>
+        <v>1.006</v>
+      </c>
+      <c r="B1">
+        <f>(1.5)*1.01</f>
+        <v>1.5150000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <f>$A1*1.006</f>
+        <v>1.0120359999999999</v>
+      </c>
+      <c r="B2">
+        <f>(0.5+$B1)*1.006</f>
+        <v>2.0270900000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <f t="shared" ref="A3:A60" si="0">$A2*1.006</f>
+        <v>1.0181082159999999</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B23" si="1">(0.05+$B2)*1.006</f>
+        <v>2.0895525400000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>1.024216865296</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>2.15238985524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1.030362166487776</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2.2156041943714397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1.0365443394867027</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2.2791978195376683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1.0427636055236229</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>2.3431730064548941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1.0490201871567646</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>2.4075320444936232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1.0553143082797052</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2.472277236760585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1.0616461941293833</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2.5374109001811482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1.0680160712941595</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>2.6029353655822351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1.0744241677219244</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>2.6688529777757286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1.080870712728256</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>2.7351660956423829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1.0873559370046255</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>2.801877092216237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <f>$A14*1.006</f>
+        <v>1.0938800726266533</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>2.8689883547695345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1.1004433530624131</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>2.9365022848981517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1.1070460131807875</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>3.0044212986075403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1.1136882892598723</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>3.0727478263991852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1.1203704189954315</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>3.14148431335758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1.1270926415094042</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>3.2106332192377254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1.1338551973584607</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>3.2801970185531517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1.1406583285426115</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>3.3501782006644705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>1.1475022785138671</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>3.420579269868457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1.1543872921849503</v>
+      </c>
+      <c r="B24">
+        <f>(0.05+$B23)*1.006</f>
+        <v>3.4914027454876675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1.1613136159380599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>1.1682814976336884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>1.1752911866194906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>1.1823429337392075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1.1894369913416427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>1.1965736132896925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>1.2037530549694306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1.2109755732992473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>1.2182414267390429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>1.2255508752994773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>1.2329041805512742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>1.2403016056345817</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>1.2477434152683893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>1.2552298757599996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>1.2627612550145595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>1.2703378225446469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>1.2779598494799147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>1.2856276085767941</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>1.2933413742282549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>1.3011014224736244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>1.3089080310084662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>1.316761479194517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>1.3246620480696842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>1.3326100203581024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>1.3406056804802511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>1.3486493145631326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>1.3567412104505114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>1.3648816577132146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>1.3730709476594938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>1.3813093733454507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>1.3895972295855235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>1.3979348129630367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>1.4063224218408148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>1.4147603563718596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>1.4232489185100907</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>1.4317884120211513</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日课.xlsx
+++ b/日课.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512177BC-F8C5-9040-9A09-FA2BE90D56B2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59398C89-D48D-6B4A-9933-93F6C2AC3FED}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" activeTab="2" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="187">
   <si>
     <t>联系父母</t>
     <rPh sb="0" eb="1">
@@ -1982,13 +1982,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被动支出</t>
-    <rPh sb="0" eb="4">
-      <t>tou'ru</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2014,13 +2007,6 @@
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健身定投</t>
-    <rPh sb="0" eb="1">
-      <t>shen</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2204,21 +2190,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主动开支</t>
-    <rPh sb="0" eb="4">
-      <t>zhu'dong'kai'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6187</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码输出</t>
-    <rPh sb="0" eb="4">
-      <t>quan'zhan</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2255,13 +2227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>概念背诵</t>
-    <rPh sb="0" eb="1">
-      <t>ren'zhihu'cheng'he</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大晚上少喝咖啡刺激自己，这样并不利于自己身心健康</t>
     <rPh sb="0" eb="1">
       <t>ge</t>
@@ -2421,13 +2386,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>滚雪球</t>
-    <rPh sb="0" eb="1">
-      <t>ren'zhihu'cheng'he</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>护城河</t>
     <rPh sb="0" eb="3">
       <t>ben'ye</t>
@@ -2492,6 +2450,34 @@
   </si>
   <si>
     <t>5003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支</t>
+    <rPh sb="0" eb="137">
+      <t>tou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身修行</t>
+    <rPh sb="0" eb="1">
+      <t>shen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背诵次数</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zhihu'cheng'he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码行</t>
+    <rPh sb="0" eb="82">
+      <t>quan'zhan</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2582,7 +2568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2629,9 +2615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2957,902 +2940,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A76" activePane="bottomLeft"/>
-      <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <pane ySplit="2440" topLeftCell="A75" activePane="bottomLeft"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="10" style="15" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" style="17"/>
-    <col min="10" max="16384" width="11.6640625" style="12"/>
+    <col min="2" max="2" width="8" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10" style="15" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="16"/>
+    <col min="9" max="16384" width="11.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>135</v>
+      <c r="B2" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>186</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="12">
         <v>20180101</v>
       </c>
-      <c r="C3" s="14">
+      <c r="B3" s="14">
         <v>5779</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="12">
         <v>20180102</v>
       </c>
-      <c r="C4" s="14">
+      <c r="B4" s="14">
         <v>3529</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="12">
         <v>20180103</v>
       </c>
-      <c r="C5" s="14">
+      <c r="B5" s="14">
         <v>3256</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="7">
         <v>20180104</v>
       </c>
-      <c r="C6" s="8">
+      <c r="B6" s="8">
         <v>3450</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="12">
         <v>20180105</v>
       </c>
-      <c r="C7" s="14">
+      <c r="B7" s="14">
         <v>3351</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="12">
         <v>20180106</v>
       </c>
-      <c r="C8" s="14">
+      <c r="B8" s="14">
         <v>3298</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="12">
         <v>20180107</v>
       </c>
-      <c r="C9" s="14">
+      <c r="B9" s="14">
         <v>3638</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="12">
         <v>20180108</v>
       </c>
-      <c r="C10" s="14">
+      <c r="B10" s="14">
         <v>3968</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="12">
         <v>20180109</v>
       </c>
-      <c r="C11" s="14">
+      <c r="B11" s="14">
         <v>3193</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="E11" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="12">
         <v>20180110</v>
       </c>
-      <c r="C12" s="14">
+      <c r="B12" s="14">
         <v>4138</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="12">
         <v>20180111</v>
       </c>
-      <c r="C13" s="14">
+      <c r="B13" s="14">
         <v>3535</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="12">
         <v>20180112</v>
       </c>
-      <c r="C14" s="14">
+      <c r="B14" s="14">
         <v>4554</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="E14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="12">
         <v>20180113</v>
       </c>
-      <c r="C15" s="14">
+      <c r="B15" s="14">
         <v>7279</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="12">
         <v>20180114</v>
       </c>
-      <c r="C16" s="14">
+      <c r="B16" s="14">
         <v>4680</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="12">
         <v>20180115</v>
       </c>
-      <c r="C17" s="14">
+      <c r="B17" s="14">
         <v>4776</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="12">
         <v>20180116</v>
       </c>
-      <c r="C18" s="14">
+      <c r="B18" s="14">
         <v>5714</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="12">
         <v>20180117</v>
       </c>
-      <c r="C19" s="14">
+      <c r="B19" s="14">
         <v>3295</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="12">
         <v>20180118</v>
       </c>
-      <c r="C20" s="14">
+      <c r="B20" s="14">
         <v>4580</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="12">
         <v>20180119</v>
       </c>
-      <c r="C21" s="14">
+      <c r="B21" s="14">
         <v>4389</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" s="12">
         <v>20180120</v>
       </c>
-      <c r="C22" s="14">
+      <c r="B22" s="14">
         <v>3753</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" s="12">
         <v>20180121</v>
       </c>
-      <c r="C23" s="14">
+      <c r="B23" s="14">
         <v>3713</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="12">
         <v>20180122</v>
       </c>
-      <c r="C24" s="14">
+      <c r="B24" s="14">
         <v>3110</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" s="12">
         <v>20180123</v>
       </c>
-      <c r="C25" s="14">
+      <c r="B25" s="14">
         <v>4399</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="12">
         <v>20180124</v>
       </c>
-      <c r="C26" s="14">
+      <c r="B26" s="14">
         <v>3266</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="12">
         <v>20180125</v>
       </c>
-      <c r="C27" s="14">
+      <c r="B27" s="14">
         <v>3205</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="12">
         <v>20180126</v>
       </c>
-      <c r="C28" s="14">
+      <c r="B28" s="14">
         <v>4677</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="12">
         <v>20180127</v>
       </c>
-      <c r="C29" s="14">
+      <c r="B29" s="14">
         <v>3119</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="12">
         <v>20180128</v>
       </c>
-      <c r="C30" s="14">
+      <c r="B30" s="14">
         <v>3587</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="12">
         <v>20180129</v>
       </c>
-      <c r="C31" s="14">
+      <c r="B31" s="14">
         <v>3948</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="12">
         <v>20180130</v>
       </c>
-      <c r="C32" s="14">
+      <c r="B32" s="14">
         <v>3299</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" s="12">
         <v>20180131</v>
       </c>
-      <c r="C33" s="14">
+      <c r="B33" s="14">
         <v>3449</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" s="12">
         <v>20180201</v>
       </c>
-      <c r="C34" s="14">
+      <c r="B34" s="14">
         <v>3274</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" s="12">
         <v>20180202</v>
       </c>
-      <c r="C35" s="14">
+      <c r="B35" s="14">
         <v>3126</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" s="12">
         <v>20180203</v>
       </c>
-      <c r="C36" s="14">
+      <c r="B36" s="14">
         <v>3318</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" s="12">
         <v>20180204</v>
       </c>
-      <c r="C37" s="14">
+      <c r="B37" s="14">
         <v>3246</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" s="12">
         <v>20180205</v>
       </c>
-      <c r="C38" s="14">
+      <c r="B38" s="14">
         <v>3138</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="E38" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="12">
         <v>20180206</v>
       </c>
-      <c r="C39" s="14">
+      <c r="B39" s="14">
         <v>3535</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="E39" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="12">
         <v>20180207</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="B40" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="12">
         <v>20180208</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="B41" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="12">
         <v>20180209</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="B42" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="12">
         <v>20180210</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="B43" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="12">
         <v>20180211</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="B44" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>109</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="12">
         <v>20180213</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="B46" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="12">
         <v>20180214</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="B47" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="12">
         <v>20180215</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="B48" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="12">
         <v>20180216</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="B49" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="12">
         <v>20180217</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="B50" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="12">
         <v>20180218</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="B51" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="12">
         <v>20180219</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="B52" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="12">
         <v>20180220</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="B53" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="12">
         <v>20180221</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="B54" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="12">
         <v>20180222</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="B55" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="12">
         <v>20180223</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="B56" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="12">
         <v>20180224</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="15">
+      <c r="B57" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58" s="12">
         <v>20180225</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="B58" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="15">
+        <v>128</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:6">
       <c r="A60" s="12">
         <v>20180227</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="B60" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:6">
       <c r="A61" s="12">
         <v>20180228</v>
       </c>
-      <c r="B61" s="16">
-        <f>29+13</f>
-        <v>42</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G61" s="15">
+      <c r="B61" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:6">
       <c r="A62" s="12">
         <v>20180301</v>
       </c>
-      <c r="B62" s="16">
-        <v>24</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G62" s="15">
+      <c r="B62" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:6">
       <c r="A63" s="12">
         <v>20180302</v>
       </c>
-      <c r="B63" s="16">
-        <v>28</v>
-      </c>
-      <c r="C63" s="14" t="s">
+      <c r="B63" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="E63" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="12">
         <v>20180303</v>
       </c>
-      <c r="B64" s="16">
-        <v>24</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="B64" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="12">
         <v>20180304</v>
       </c>
-      <c r="B65" s="16">
-        <v>26.5</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G65" s="15">
+      <c r="B65" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:6">
       <c r="A66" s="12">
         <v>20180305</v>
       </c>
-      <c r="B66" s="16">
-        <v>30.5</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="15">
+      <c r="B66" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:6">
       <c r="A67" s="12">
         <v>20180306</v>
       </c>
-      <c r="B67" s="16">
-        <v>24</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G67" s="15">
+      <c r="B67" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:6">
       <c r="A68" s="12">
         <v>20180307</v>
       </c>
-      <c r="B68" s="16">
-        <v>36.5</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" s="15">
+      <c r="B68" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:6">
       <c r="A69" s="12">
         <v>20180308</v>
       </c>
-      <c r="B69" s="16">
-        <v>25</v>
+      <c r="B69" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G69" s="15">
+      <c r="E69" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:6">
       <c r="A70" s="12">
         <v>20180309</v>
       </c>
-      <c r="B70" s="16">
-        <v>35</v>
+      <c r="B70" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="12">
         <v>20180310</v>
       </c>
-      <c r="B71" s="16">
-        <v>85</v>
+      <c r="B71" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="12">
         <v>20180311</v>
       </c>
-      <c r="B72" s="16">
-        <v>145</v>
+      <c r="B72" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="12">
         <v>20180312</v>
       </c>
-      <c r="B73" s="16">
-        <v>195</v>
+      <c r="B73" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="12">
         <v>20180313</v>
       </c>
-      <c r="B74" s="16">
-        <v>74</v>
+      <c r="B74" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G74" s="15">
+        <v>174</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:6">
       <c r="A75" s="12">
         <v>20180314</v>
       </c>
-      <c r="B75" s="16">
-        <v>71</v>
+      <c r="B75" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>177</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="12">
         <v>20180315</v>
       </c>
-      <c r="B76" s="16">
-        <v>21</v>
+      <c r="B76" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>180</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="12">
         <v>20180316</v>
       </c>
-      <c r="B77" s="16">
-        <v>50</v>
+      <c r="B77" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="12">
         <v>20180317</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:6">
       <c r="A79" s="12">
         <v>20180318</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:6">
       <c r="A80" s="12">
         <v>20180319</v>
       </c>
@@ -3919,8 +3843,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3946,10 +3870,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="18"/>
       <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
@@ -3959,10 +3883,10 @@
         <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -4535,10 +4459,10 @@
         <v>20180224</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -4547,10 +4471,10 @@
         <v>20180225</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D58" s="3"/>
     </row>
@@ -4559,10 +4483,10 @@
         <v>20180226</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="3"/>
     </row>
@@ -4571,10 +4495,10 @@
         <v>20180227</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="3"/>
     </row>
@@ -4583,10 +4507,10 @@
         <v>20180228</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -4595,10 +4519,10 @@
         <v>20180301</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D62" s="3"/>
     </row>
@@ -4607,10 +4531,10 @@
         <v>20180302</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D63" s="3"/>
     </row>
@@ -4619,10 +4543,10 @@
         <v>20180303</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -4631,10 +4555,10 @@
         <v>20180304</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -4643,10 +4567,10 @@
         <v>20180305</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -4655,10 +4579,10 @@
         <v>20180306</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -4667,10 +4591,10 @@
         <v>20180307</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -4679,10 +4603,10 @@
         <v>20180308</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -4741,7 +4665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1332A57F-19B0-9A41-9309-2395832BED90}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/日课.xlsx
+++ b/日课.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59398C89-D48D-6B4A-9933-93F6C2AC3FED}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC94FD3-A6F0-A540-851A-083A431EAB8B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="工作表1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2454,7 +2455,7 @@
   </si>
   <si>
     <t>收支</t>
-    <rPh sb="0" eb="137">
+    <rPh sb="0" eb="2">
       <t>tou'ru</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2475,7 +2476,7 @@
   </si>
   <si>
     <t>代码行</t>
-    <rPh sb="0" eb="82">
+    <rPh sb="0" eb="3">
       <t>quan'zhan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2943,9 +2944,9 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A75" activePane="bottomLeft"/>
-      <selection activeCell="D1" sqref="D1:F1"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="2440" topLeftCell="A82"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>

--- a/日课.xlsx
+++ b/日课.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC94FD3-A6F0-A540-851A-083A431EAB8B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E8C7E-D30D-9749-A278-51D839EB36D9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="工作表1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="180">
   <si>
     <t>联系父母</t>
     <rPh sb="0" eb="1">
@@ -2406,22 +2405,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2614</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>430</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2648</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2430,23 +2417,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2330</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1493</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>578</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2471,13 +2446,6 @@
     <t>背诵次数</t>
     <rPh sb="0" eb="1">
       <t>ren'zhihu'cheng'he</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码行</t>
-    <rPh sb="0" eb="3">
-      <t>quan'zhan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2941,59 +2909,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A82"/>
+      <pane ySplit="2440" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="C2" sqref="C1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="8" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10" style="15" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" style="16"/>
-    <col min="9" max="16384" width="11.6640625" style="12"/>
+    <col min="3" max="3" width="8.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10" style="15" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" style="16"/>
+    <col min="8" max="16384" width="11.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>167</v>
       </c>
+      <c r="D1" s="17"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="12">
         <v>20180101</v>
       </c>
@@ -3001,7 +2964,7 @@
         <v>5779</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="12">
         <v>20180102</v>
       </c>
@@ -3009,29 +2972,28 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="12">
         <v>20180103</v>
       </c>
       <c r="B5" s="14">
         <v>3256</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="7">
         <v>20180104</v>
       </c>
       <c r="B6" s="8">
         <v>3450</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="12">
         <v>20180105</v>
       </c>
@@ -3039,29 +3001,29 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="12">
         <v>20180106</v>
       </c>
       <c r="B8" s="14">
         <v>3298</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="12">
         <v>20180107</v>
       </c>
       <c r="B9" s="14">
         <v>3638</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="12">
         <v>20180108</v>
       </c>
@@ -3069,18 +3031,18 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="12">
         <v>20180109</v>
       </c>
       <c r="B11" s="14">
         <v>3193</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="12">
         <v>20180110</v>
       </c>
@@ -3088,7 +3050,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="12">
         <v>20180111</v>
       </c>
@@ -3096,18 +3058,18 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="12">
         <v>20180112</v>
       </c>
       <c r="B14" s="14">
         <v>4554</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="12">
         <v>20180113</v>
       </c>
@@ -3115,7 +3077,7 @@
         <v>7279</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="12">
         <v>20180114</v>
       </c>
@@ -3123,18 +3085,18 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="12">
         <v>20180115</v>
       </c>
       <c r="B17" s="14">
         <v>4776</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="12">
         <v>20180116</v>
       </c>
@@ -3142,18 +3104,18 @@
         <v>5714</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="12">
         <v>20180117</v>
       </c>
       <c r="B19" s="14">
         <v>3295</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="12">
         <v>20180118</v>
       </c>
@@ -3161,7 +3123,7 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:4">
       <c r="A21" s="12">
         <v>20180119</v>
       </c>
@@ -3169,7 +3131,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:4">
       <c r="A22" s="12">
         <v>20180120</v>
       </c>
@@ -3177,18 +3139,18 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="A23" s="12">
         <v>20180121</v>
       </c>
       <c r="B23" s="14">
         <v>3713</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4">
       <c r="A24" s="12">
         <v>20180122</v>
       </c>
@@ -3196,18 +3158,18 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:4">
       <c r="A25" s="12">
         <v>20180123</v>
       </c>
       <c r="B25" s="14">
         <v>4399</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:4">
       <c r="A26" s="12">
         <v>20180124</v>
       </c>
@@ -3215,18 +3177,18 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:4">
       <c r="A27" s="12">
         <v>20180125</v>
       </c>
       <c r="B27" s="14">
         <v>3205</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:4">
       <c r="A28" s="12">
         <v>20180126</v>
       </c>
@@ -3234,18 +3196,18 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:4">
       <c r="A29" s="12">
         <v>20180127</v>
       </c>
       <c r="B29" s="14">
         <v>3119</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4">
       <c r="A30" s="12">
         <v>20180128</v>
       </c>
@@ -3253,18 +3215,18 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:4">
       <c r="A31" s="12">
         <v>20180129</v>
       </c>
       <c r="B31" s="14">
         <v>3948</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:4">
       <c r="A32" s="12">
         <v>20180130</v>
       </c>
@@ -3272,7 +3234,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:4">
       <c r="A33" s="12">
         <v>20180131</v>
       </c>
@@ -3280,7 +3242,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:4">
       <c r="A34" s="12">
         <v>20180201</v>
       </c>
@@ -3288,7 +3250,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:4">
       <c r="A35" s="12">
         <v>20180202</v>
       </c>
@@ -3296,7 +3258,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:4">
       <c r="A36" s="12">
         <v>20180203</v>
       </c>
@@ -3304,7 +3266,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:4">
       <c r="A37" s="12">
         <v>20180204</v>
       </c>
@@ -3312,29 +3274,29 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:4">
       <c r="A38" s="12">
         <v>20180205</v>
       </c>
       <c r="B38" s="14">
         <v>3138</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" s="12">
         <v>20180206</v>
       </c>
       <c r="B39" s="14">
         <v>3535</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:4">
       <c r="A40" s="12">
         <v>20180207</v>
       </c>
@@ -3342,7 +3304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:4">
       <c r="A41" s="12">
         <v>20180208</v>
       </c>
@@ -3350,7 +3312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:4">
       <c r="A42" s="12">
         <v>20180209</v>
       </c>
@@ -3358,7 +3320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:4">
       <c r="A43" s="12">
         <v>20180210</v>
       </c>
@@ -3366,7 +3328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:4">
       <c r="A44" s="12">
         <v>20180211</v>
       </c>
@@ -3374,7 +3336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
         <v>109</v>
       </c>
@@ -3382,7 +3344,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:4">
       <c r="A46" s="12">
         <v>20180213</v>
       </c>
@@ -3390,7 +3352,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:4">
       <c r="A47" s="12">
         <v>20180214</v>
       </c>
@@ -3398,7 +3360,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:4">
       <c r="A48" s="12">
         <v>20180215</v>
       </c>
@@ -3406,7 +3368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" s="12">
         <v>20180216</v>
       </c>
@@ -3414,7 +3376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" s="12">
         <v>20180217</v>
       </c>
@@ -3422,7 +3384,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" s="12">
         <v>20180218</v>
       </c>
@@ -3430,7 +3392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" s="12">
         <v>20180219</v>
       </c>
@@ -3438,7 +3400,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" s="12">
         <v>20180220</v>
       </c>
@@ -3446,7 +3408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:5">
       <c r="A54" s="12">
         <v>20180221</v>
       </c>
@@ -3454,7 +3416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5">
       <c r="A55" s="12">
         <v>20180222</v>
       </c>
@@ -3462,7 +3424,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5">
       <c r="A56" s="12">
         <v>20180223</v>
       </c>
@@ -3470,21 +3432,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5">
       <c r="A57" s="12">
         <v>20180224</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="15">
+      <c r="E57" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5">
       <c r="A58" s="12">
         <v>20180225</v>
       </c>
@@ -3492,292 +3454,265 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:5">
       <c r="A59" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="15">
+      <c r="E59" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5">
       <c r="A60" s="12">
         <v>20180227</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="15">
+      <c r="E60" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5">
       <c r="A61" s="12">
         <v>20180228</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F61" s="15">
+      <c r="E61" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5">
       <c r="A62" s="12">
         <v>20180301</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="15">
+      <c r="E62" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:5">
       <c r="A63" s="12">
         <v>20180302</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="D63" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:5">
       <c r="A64" s="12">
         <v>20180303</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:5">
       <c r="A65" s="12">
         <v>20180304</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="15">
+      <c r="E65" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:5">
       <c r="A66" s="12">
         <v>20180305</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="15">
+      <c r="E66" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:5">
       <c r="A67" s="12">
         <v>20180306</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="D67" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="15">
+      <c r="E67" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:5">
       <c r="A68" s="12">
         <v>20180307</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F68" s="15">
+      <c r="E68" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:5">
       <c r="A69" s="12">
         <v>20180308</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="D69" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F69" s="15">
+      <c r="E69" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:5">
       <c r="A70" s="12">
         <v>20180309</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:5">
       <c r="A71" s="12">
         <v>20180310</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="D71" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:5">
       <c r="A72" s="12">
         <v>20180311</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="12">
         <v>20180312</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D73" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:5">
       <c r="A74" s="12">
         <v>20180313</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="D74" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F74" s="15">
+      <c r="E74" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:5">
       <c r="A75" s="12">
         <v>20180314</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>173</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="12">
         <v>20180315</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E76" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:5">
       <c r="A77" s="12">
         <v>20180316</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:5">
       <c r="A78" s="12">
         <v>20180317</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:5">
       <c r="A79" s="12">
         <v>20180318</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:5">
       <c r="A80" s="12">
         <v>20180319</v>
       </c>
@@ -3844,8 +3779,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
